--- a/src/main/java/org/UnDosTres/testData/TestData.xlsx
+++ b/src/main/java/org/UnDosTres/testData/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sanket\IdeaProjects\UnDosTres\src\main\java\org\UnDosTres\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF1BD82-EA89-49B3-BC29-B3524D9D573B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567D389F-B8AB-4BDE-988F-4EC64542FBFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -574,7 +574,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -634,7 +634,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -678,7 +678,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
@@ -687,10 +687,10 @@
         <v>5523261151</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
@@ -717,12 +717,12 @@
         <v>123456</v>
       </c>
       <c r="N3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
@@ -761,14 +761,14 @@
         <v>123456</v>
       </c>
       <c r="N4" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="K2" r:id="rId1" display="mailto:test@test.com" xr:uid="{A5A9FBCF-CF7D-4438-8107-FEEB65A7FCFD}"/>
-    <hyperlink ref="K3" r:id="rId2" display="mailto:test@test.com" xr:uid="{AD60584F-DBC8-4DF2-AA28-F5617EB856CF}"/>
-    <hyperlink ref="K4" r:id="rId3" display="mailto:test@test.com" xr:uid="{A0A1BA12-EC04-4F86-A601-A37DA0B136CF}"/>
+    <hyperlink ref="K3" r:id="rId2" display="mailto:test@test.com" xr:uid="{B37A75AF-0EE1-4A04-82D3-0E92959F0D9D}"/>
+    <hyperlink ref="K4" r:id="rId3" display="mailto:test@test.com" xr:uid="{2C874FB3-D7E3-4EAF-A036-A29C54315222}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
